--- a/attendance_records/daily_attendance.xlsx
+++ b/attendance_records/daily_attendance.xlsx
@@ -474,7 +474,6 @@
           <t>00:21:42</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>Present</t>

--- a/attendance_records/daily_attendance.xlsx
+++ b/attendance_records/daily_attendance.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,38 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2481436</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Devansh Datta</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10:30:44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>63.05%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Attendance Marked</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/attendance_records/daily_attendance.xlsx
+++ b/attendance_records/daily_attendance.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,6 +522,70 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2480236</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pooja Batra</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21:50:44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>68.77%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Attendance Marked</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2580236</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aarti Chugh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10:00:03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Present</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>60.77%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Attendance Marked</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
